--- a/SEROFOI/summary_models/TABLA FINAL TODOS SUMMARY.xlsx
+++ b/SEROFOI/summary_models/TABLA FINAL TODOS SUMMARY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caj_d\OneDrive\Escritorio\Proyecto Fuerza de infección VPH\GIT\hpv_seroprevalence\SEROFOI\summary_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F473A6A-EA6A-4E9E-A4A8-1EC1FF7BFE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACD4667-97CE-46B8-8FB7-82E19F2D9A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A5FD9D2B-47CF-E04B-AB91-71BB9B4E3A36}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="135">
   <si>
     <t>Fuerza de Infección</t>
   </si>
@@ -271,9 +271,6 @@
     <t>-19.9</t>
   </si>
   <si>
-    <t>-15</t>
-  </si>
-  <si>
     <t>11.5</t>
   </si>
   <si>
@@ -355,9 +352,6 @@
     <t>-25.1</t>
   </si>
   <si>
-    <t>-22</t>
-  </si>
-  <si>
     <t>7.1</t>
   </si>
   <si>
@@ -422,6 +416,36 @@
   </si>
   <si>
     <t>0.71-2.0</t>
+  </si>
+  <si>
+    <t>IBC</t>
+  </si>
+  <si>
+    <t>-15.0</t>
+  </si>
+  <si>
+    <t>-22.0</t>
+  </si>
+  <si>
+    <t>0.35-1.9</t>
+  </si>
+  <si>
+    <t>-17.3</t>
+  </si>
+  <si>
+    <t>-17.4</t>
+  </si>
+  <si>
+    <t>-18.6</t>
+  </si>
+  <si>
+    <t>-19.1</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>BRA16</t>
   </si>
 </sst>
 </file>
@@ -581,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -597,13 +621,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -629,9 +646,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -651,10 +665,26 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -675,17 +705,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1020,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381CA750-62E5-9E45-A0BE-2132F289AB42}">
-  <dimension ref="B1:L81"/>
+  <dimension ref="B1:Y99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M13" zoomScale="134" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="134" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68:L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1035,63 +1055,63 @@
     <col min="6" max="6" width="12.5" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="8.796875" customWidth="1"/>
+    <col min="9" max="9" width="12.09765625" customWidth="1"/>
     <col min="10" max="10" width="8.5" customWidth="1"/>
     <col min="11" max="11" width="7" style="1" customWidth="1"/>
     <col min="12" max="12" width="5.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="18" t="s">
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="20"/>
+      <c r="L1" s="36"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="10"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="23" t="s">
+      <c r="I2" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="19" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1099,34 +1119,34 @@
       <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="21">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="26" t="s">
+      <c r="G3" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="22" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1134,34 +1154,34 @@
       <c r="B4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="26" t="s">
+      <c r="E4" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="22" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1169,34 +1189,34 @@
       <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="26" t="s">
+      <c r="E5" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="L5" s="22" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1204,185 +1224,203 @@
       <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="25">
+      <c r="E6" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="21">
         <v>1</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="21">
         <v>1</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="K6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="26" t="s">
+      <c r="L6" s="22" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
     </row>
     <row r="12" spans="2:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18" t="s">
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="18" t="s">
+      <c r="I12" s="35"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="20"/>
+      <c r="L12" s="36"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="10"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" s="23" t="s">
+      <c r="I13" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="23" t="s">
+      <c r="K13" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="23" t="s">
+      <c r="L13" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="20" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="12" t="s">
+      <c r="H14" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="20" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="12" t="s">
+      <c r="H15" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="L15" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="20" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="12" t="s">
+      <c r="H16" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="L16" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="37" t="s">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="2"/>
@@ -1398,143 +1436,161 @@
       <c r="J17" s="3">
         <v>1</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="L17" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-    </row>
-    <row r="20" spans="2:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="8" t="s">
+    <row r="18" spans="2:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+    </row>
+    <row r="20" spans="2:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="15" t="s">
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="32" t="s">
+      <c r="I20" s="32"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="L20" s="34"/>
-    </row>
-    <row r="21" spans="2:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="10"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="23" t="s">
+      <c r="L20" s="16"/>
+    </row>
+    <row r="21" spans="2:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="26"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="I21" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="J21" s="23" t="s">
+      <c r="I21" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="J21" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="K21" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="L21" s="23" t="s">
+      <c r="L21" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="37" t="s">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="20" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="12" t="s">
+      <c r="H22" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="L22" s="12" t="s">
+      <c r="L22" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="37" t="s">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="20" t="s">
         <v>41</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="12" t="s">
+      <c r="H23" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L23" s="12" t="s">
+      <c r="L23" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="37" t="s">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="20" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="12" t="s">
+      <c r="H24" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L24" s="12" t="s">
+      <c r="L24" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="37" t="s">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D25" s="2"/>
@@ -1550,143 +1606,207 @@
       <c r="J25" s="3">
         <v>1</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="K25" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L25" s="12" t="s">
+      <c r="L25" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="K26" s="39"/>
-      <c r="L26" s="38"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="K27" s="39"/>
-      <c r="L27" s="38"/>
-    </row>
-    <row r="28" spans="2:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="8" t="s">
+    <row r="26" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="K26" s="24"/>
+      <c r="L26" s="23"/>
+      <c r="O26" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q26" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R26" s="13"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="U26" s="32"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="X26" s="16"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="K27" s="24"/>
+      <c r="L27" s="23"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="R27" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="S27" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="T27" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="U27" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="V27" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="W27" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="X27" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="30"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="32" t="s">
+      <c r="F28" s="13"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I28" s="33"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="32" t="s">
+      <c r="I28" s="32"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="L28" s="34"/>
-    </row>
-    <row r="29" spans="2:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="10"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="23" t="s">
+      <c r="L28" s="16"/>
+    </row>
+    <row r="29" spans="2:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="26"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="I29" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="J29" s="23" t="s">
+      <c r="I29" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="J29" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K29" s="23" t="s">
+      <c r="K29" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="L29" s="23" t="s">
+      <c r="L29" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="37" t="s">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="20" t="s">
         <v>40</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="12" t="s">
+      <c r="H30" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K30" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="L30" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="37" t="s">
+      <c r="L30" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="20" t="s">
         <v>41</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="12" t="s">
+      <c r="H31" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K31" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="L31" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="37" t="s">
+      <c r="L31" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="20" t="s">
         <v>42</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="12" t="s">
+      <c r="H32" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K32" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="L32" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="37" t="s">
+      <c r="L32" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D33" s="2"/>
@@ -1702,135 +1822,153 @@
       <c r="J33" s="3">
         <v>1</v>
       </c>
-      <c r="K33" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="L33" s="12" t="s">
+      <c r="K33" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="L33" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B36" s="8" t="s">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B36" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="E36" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F36" s="30"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="32" t="s">
+      <c r="F36" s="32"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="I36" s="33"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="32" t="s">
+      <c r="I36" s="35"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="L36" s="34"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="10"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="23" t="s">
+      <c r="L36" s="36"/>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B37" s="26"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="F37" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G37" s="23" t="s">
+      <c r="G37" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H37" s="23" t="s">
+      <c r="H37" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="I37" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="J37" s="23" t="s">
+      <c r="I37" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="J37" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K37" s="23" t="s">
+      <c r="K37" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="L37" s="23" t="s">
+      <c r="L37" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B38" s="37" t="s">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="20" t="s">
         <v>40</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B39" s="37" t="s">
+      <c r="H38" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J38" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="20" t="s">
         <v>41</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="L39" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B40" s="37" t="s">
+      <c r="H39" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J39" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B40" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="20" t="s">
         <v>42</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="L40" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B41" s="37" t="s">
+      <c r="H40" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J40" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D41" s="2"/>
@@ -1838,143 +1976,208 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="3" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="J41" s="3">
         <v>1</v>
       </c>
-      <c r="K41" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="L41" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B44" s="8" t="s">
+      <c r="K41" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="O41" s="25"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="34"/>
+      <c r="V41" s="35"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="34"/>
+      <c r="Y41" s="36"/>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="O42" s="26"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B44" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="18" t="s">
+      <c r="F44" s="32"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="18" t="s">
+      <c r="I44" s="35"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="L44" s="20"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B45" s="10"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="23" t="s">
+      <c r="L44" s="36"/>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B45" s="26"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F45" s="23" t="s">
+      <c r="F45" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G45" s="23" t="s">
+      <c r="G45" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H45" s="23" t="s">
+      <c r="H45" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="I45" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="J45" s="23" t="s">
+      <c r="I45" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="J45" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K45" s="23" t="s">
+      <c r="K45" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="L45" s="23" t="s">
+      <c r="L45" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B46" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C46" s="24" t="s">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B46" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="20" t="s">
         <v>40</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="L46" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B47" s="37" t="s">
+      <c r="H46" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I46" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J46" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K46" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="L46" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B47" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="20" t="s">
         <v>41</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L47" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B48" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="24" t="s">
+      <c r="H47" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I47" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J47" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B48" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="20" t="s">
         <v>42</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="L48" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B49" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" s="24" t="s">
+      <c r="H48" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I48" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J48" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="O48" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="P48" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="R48" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="S48" s="32"/>
+      <c r="T48" s="33"/>
+      <c r="U48" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="V48" s="35"/>
+      <c r="W48" s="36"/>
+      <c r="X48" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y48" s="36"/>
+    </row>
+    <row r="49" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B49" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D49" s="2"/>
@@ -1982,143 +2185,188 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I49" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="J49" s="3">
         <v>1</v>
       </c>
-      <c r="K49" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="L49" s="12" t="s">
+      <c r="K49" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="L49" s="9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="53" spans="2:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="8" t="s">
+      <c r="O49" s="26"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="30"/>
+      <c r="R49" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="S49" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="T49" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U49" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="V49" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="W49" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="X49" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E53" s="15" t="s">
+      <c r="E53" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F53" s="16"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="18" t="s">
+      <c r="F53" s="32"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="18" t="s">
+      <c r="I53" s="35"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="L53" s="20"/>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B54" s="10"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="23" t="s">
+      <c r="L53" s="36"/>
+    </row>
+    <row r="54" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B54" s="26"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F54" s="23" t="s">
+      <c r="F54" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G54" s="23" t="s">
+      <c r="G54" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H54" s="23" t="s">
+      <c r="H54" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="I54" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="J54" s="23" t="s">
+      <c r="I54" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="J54" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K54" s="23" t="s">
+      <c r="K54" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="L54" s="23" t="s">
+      <c r="L54" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B55" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C55" s="24" t="s">
+    <row r="55" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B55" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="20" t="s">
         <v>40</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="L55" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B56" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C56" s="24" t="s">
+      <c r="H55" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I55" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J55" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B56" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="20" t="s">
         <v>41</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="L56" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B57" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" s="24" t="s">
+      <c r="H56" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I56" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J56" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B57" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="20" t="s">
         <v>42</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="L57" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B58" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="24" t="s">
+      <c r="H57" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I57" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J57" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B58" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D58" s="2"/>
@@ -2126,143 +2374,161 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J58" s="3">
         <v>1</v>
       </c>
-      <c r="K58" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="L58" s="12" t="s">
+      <c r="K58" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L58" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="8" t="s">
+    <row r="61" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D61" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E61" s="15" t="s">
+      <c r="E61" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F61" s="16"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="18" t="s">
+      <c r="F61" s="32"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="18" t="s">
+      <c r="I61" s="35"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="L61" s="20"/>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B62" s="10"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="23" t="s">
+      <c r="L61" s="36"/>
+    </row>
+    <row r="62" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B62" s="26"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F62" s="23" t="s">
+      <c r="F62" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G62" s="23" t="s">
+      <c r="G62" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H62" s="23" t="s">
+      <c r="H62" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="I62" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="J62" s="23" t="s">
+      <c r="I62" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="J62" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K62" s="23" t="s">
+      <c r="K62" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="L62" s="23" t="s">
+      <c r="L62" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B63" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="C63" s="24" t="s">
+    <row r="63" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B63" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" s="20" t="s">
         <v>40</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="L63" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B64" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="C64" s="24" t="s">
+      <c r="H63" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I63" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J63" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B64" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" s="20" t="s">
         <v>41</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="L64" s="12" t="s">
-        <v>106</v>
+      <c r="H64" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I64" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J64" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L64" s="9" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B65" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="C65" s="24" t="s">
+      <c r="B65" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C65" s="20" t="s">
         <v>42</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="L65" s="12" t="s">
+      <c r="H65" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I65" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J65" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B66" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B66" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="C66" s="24" t="s">
+      <c r="C66" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D66" s="2"/>
@@ -2270,143 +2536,161 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J66" s="3">
         <v>1</v>
       </c>
-      <c r="K66" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="L66" s="12" t="s">
-        <v>107</v>
+      <c r="K66" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="2:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C68" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D68" s="14" t="s">
+      <c r="D68" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E68" s="15" t="s">
+      <c r="E68" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F68" s="16"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="18" t="s">
+      <c r="F68" s="32"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
-      <c r="K68" s="18" t="s">
+      <c r="I68" s="35"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="L68" s="20"/>
+      <c r="L68" s="36"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B69" s="11"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="23" t="s">
+      <c r="B69" s="8"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F69" s="23" t="s">
+      <c r="F69" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G69" s="23" t="s">
+      <c r="G69" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H69" s="23" t="s">
+      <c r="H69" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="I69" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="J69" s="23" t="s">
+      <c r="I69" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="J69" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K69" s="23" t="s">
+      <c r="K69" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="L69" s="23" t="s">
+      <c r="L69" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B70" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="C70" s="24" t="s">
+      <c r="B70" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" s="20" t="s">
         <v>40</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="L70" s="12" t="s">
-        <v>88</v>
+      <c r="H70" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I70" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J70" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B71" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="C71" s="24" t="s">
+      <c r="B71" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71" s="20" t="s">
         <v>41</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L71" s="12" t="s">
+      <c r="H71" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I71" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J71" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L71" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B72" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="C72" s="24" t="s">
+      <c r="B72" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C72" s="20" t="s">
         <v>42</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="12" t="s">
+      <c r="H72" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I72" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J72" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L72" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="L72" s="12" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="73" spans="2:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="C73" s="24" t="s">
+      <c r="B73" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C73" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D73" s="2"/>
@@ -2414,143 +2698,161 @@
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J73" s="3">
         <v>1</v>
       </c>
-      <c r="K73" s="12" t="s">
+      <c r="K73" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L73" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="L73" s="12" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D76" s="14" t="s">
+      <c r="D76" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E76" s="15" t="s">
+      <c r="E76" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F76" s="16"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="18" t="s">
+      <c r="F76" s="32"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
-      <c r="K76" s="18" t="s">
+      <c r="I76" s="35"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="L76" s="20"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B77" s="10"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="23" t="s">
+      <c r="L76" s="36"/>
+    </row>
+    <row r="77" spans="2:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="26"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F77" s="23" t="s">
+      <c r="F77" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G77" s="23" t="s">
+      <c r="G77" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H77" s="23" t="s">
+      <c r="H77" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="I77" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="J77" s="23" t="s">
+      <c r="I77" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="J77" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K77" s="23" t="s">
+      <c r="K77" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="L77" s="23" t="s">
+      <c r="L77" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B78" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C78" s="24" t="s">
+      <c r="B78" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78" s="20" t="s">
         <v>40</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="L78" s="12" t="s">
-        <v>122</v>
+      <c r="H78" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I78" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J78" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K78" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L78" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B79" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C79" s="24" t="s">
+      <c r="B79" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C79" s="20" t="s">
         <v>41</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="L79" s="12" t="s">
-        <v>123</v>
+      <c r="H79" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I79" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J79" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K79" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="L79" s="9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B80" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C80" s="24" t="s">
+      <c r="B80" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C80" s="20" t="s">
         <v>42</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="L80" s="12" t="s">
-        <v>124</v>
+      <c r="H80" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I80" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J80" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K80" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="L80" s="9" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B81" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C81" s="24" t="s">
+      <c r="B81" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C81" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D81" s="2"/>
@@ -2561,31 +2863,282 @@
         <v>44</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J81" s="3">
         <v>1</v>
       </c>
-      <c r="K81" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="L81" s="12" t="s">
+      <c r="K81" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="L81" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B84" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E84" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F84" s="32"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="I84" s="35"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="L84" s="36"/>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B85" s="26"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F85" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G85" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H85" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I85" s="19" t="s">
         <v>125</v>
       </c>
+      <c r="J85" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K85" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="L85" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B86" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="21">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="F86" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G86" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H86" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I86" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J86" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K86" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L86" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B87" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F87" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G87" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H87" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I87" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J87" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K87" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="L87" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B88" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F88" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G88" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H88" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I88" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J88" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K88" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="L88" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B89" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F89" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G89" s="21">
+        <v>1</v>
+      </c>
+      <c r="H89" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I89" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="J89" s="21">
+        <v>1</v>
+      </c>
+      <c r="K89" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="L89" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K92"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K93"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K94"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K95"/>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K96"/>
+    </row>
+    <row r="97" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K97"/>
+    </row>
+    <row r="98" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K98"/>
+    </row>
+    <row r="99" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K99"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:J68"/>
+  <mergeCells count="67">
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="O48:O49"/>
+    <mergeCell ref="P48:P49"/>
+    <mergeCell ref="Q48:Q49"/>
+    <mergeCell ref="R48:T48"/>
+    <mergeCell ref="U48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="U41:W41"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:G44"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="B61:B62"/>
     <mergeCell ref="C61:C62"/>
@@ -2598,35 +3151,21 @@
     <mergeCell ref="D53:D54"/>
     <mergeCell ref="E53:G53"/>
     <mergeCell ref="H53:J53"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:J76"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="K66" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -2647,10 +3186,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="37" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -2664,8 +3203,8 @@
       </c>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
